--- a/Draw.xlsx
+++ b/Draw.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/83fefb37af455394/Projects/critical-path/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="8_{131527B4-FAAA-438F-83BB-B1C77EC79107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA49BB34-A262-48A6-B541-376F2F1F8690}"/>
+  <xr:revisionPtr revIDLastSave="288" documentId="8_{131527B4-FAAA-438F-83BB-B1C77EC79107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05036523-3DAA-40D8-A203-A373D6B0937C}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{1229FC14-F1CD-438A-8DD2-6E45EB8D762A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{1229FC14-F1CD-438A-8DD2-6E45EB8D762A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Grafo" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="2" r:id="rId1"/>
+    <sheet name="2" sheetId="4" r:id="rId2"/>
+    <sheet name="3" sheetId="3" r:id="rId3"/>
+    <sheet name="4" sheetId="5" r:id="rId4"/>
+    <sheet name="5" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="8">
   <si>
     <t>A</t>
   </si>
@@ -66,7 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,13 +85,63 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -143,20 +197,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -192,10 +262,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Conector de Seta Reta 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA31E75A-E2E8-4AA0-CD76-45526EC5E357}"/>
+        <xdr:cNvPr id="2" name="Conector de Seta Reta 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58B6DD58-D3A5-41FD-ABA5-B0B9071DA7E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -245,10 +315,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Conector de Seta Reta 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC30F79-03D6-DBB5-36B7-643591539CA1}"/>
+        <xdr:cNvPr id="3" name="Conector de Seta Reta 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3838A44-2128-4639-B580-C004C3259997}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -298,10 +368,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Conector de Seta Reta 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD39AF22-E16F-A4E6-E4ED-3858F66138EE}"/>
+        <xdr:cNvPr id="4" name="Conector de Seta Reta 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1791259-C5A4-4791-9161-2C4B70F895BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -351,10 +421,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Conector de Seta Reta 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1D517D2-E735-A172-F9B1-7B0BB5066D27}"/>
+        <xdr:cNvPr id="5" name="Conector de Seta Reta 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D6C3D55-4AAB-4FEE-8FDD-FDE4C1250916}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -404,10 +474,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Conector de Seta Reta 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84792A2A-E2C4-1A29-48F7-EA71CD90644E}"/>
+        <xdr:cNvPr id="6" name="Conector de Seta Reta 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57674683-DE9A-4BCD-8410-D39F7F8F3DB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -457,10 +527,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Conector de Seta Reta 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDBCC99D-AC17-518F-8D04-B04611308D77}"/>
+        <xdr:cNvPr id="7" name="Conector de Seta Reta 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{170D904E-9843-45BF-8AB4-D43101EED6BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -510,10 +580,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Conector de Seta Reta 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65527F2-2939-7AE3-B737-B6655730D262}"/>
+        <xdr:cNvPr id="8" name="Conector de Seta Reta 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{501F4661-1E99-4C28-A3E0-63FA2DE09628}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -563,10 +633,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Conector de Seta Reta 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFC62C28-A1C2-C539-1A36-B5BCA1B42AA8}"/>
+        <xdr:cNvPr id="9" name="Conector de Seta Reta 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{282D1C38-F600-4E9F-B9D6-BFAA24B8584C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -616,10 +686,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Conector de Seta Reta 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CE0A76E-208A-1C5D-B241-9B06CF810096}"/>
+        <xdr:cNvPr id="10" name="Conector de Seta Reta 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80278233-AD42-4FA4-B2E2-27571A96AF49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -655,6 +725,3369 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>243840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Conector de Seta Reta 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{678FE714-BFE9-444D-B8EC-F17AF87F3E28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3688080" y="1226820"/>
+          <a:ext cx="1173480" cy="1059180"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Conector de Seta Reta 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07081478-6278-4334-8F83-5DEE92C779BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="3291840"/>
+          <a:ext cx="1219200" cy="1303020"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>312420</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Conector de Seta Reta 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAC8695D-22DC-4650-989D-41AEB195AD19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6149340" y="3284220"/>
+          <a:ext cx="1173480" cy="1287780"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector de Seta Reta 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B3ECC5-7974-4159-8784-F27A37054FDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8564880" y="1661160"/>
+          <a:ext cx="556260" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Conector de Seta Reta 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91D7728B-0205-43C6-81E5-DDA3CDFF5219}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6111240" y="975360"/>
+          <a:ext cx="3025140" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Conector de Seta Reta 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8372250D-0952-492B-AF5D-D75C3AFCF78C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10378440" y="2979420"/>
+          <a:ext cx="1798320" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector de Seta Reta 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{660EE1C2-B583-4C7A-944B-05F055217B72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10363200" y="1303020"/>
+          <a:ext cx="1813560" cy="982980"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Conector de Seta Reta 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2DCB404-33D2-45E3-B35A-94AE0EBF4E68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1226820" y="2613660"/>
+          <a:ext cx="1203960" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Conector de Seta Reta 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2916C248-7DB0-4D22-A0B9-3AA097B0EB43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6111240" y="4914900"/>
+          <a:ext cx="2994660" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>243840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Conector de Seta Reta 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F710EAFF-3C0D-48C9-9ED4-26B9461BF5E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3688080" y="1226820"/>
+          <a:ext cx="1173480" cy="1059180"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Conector de Seta Reta 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75C1C791-788F-4C7A-A4B8-234EF8E70B2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="3291840"/>
+          <a:ext cx="1219200" cy="1303020"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>312420</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Conector de Seta Reta 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A6D5166-E737-44A3-99EA-480D3C81A165}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6149340" y="3284220"/>
+          <a:ext cx="1173480" cy="1287780"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Conector de Seta Reta 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CE9E85D-5643-44BD-917E-4AA32AD6AC3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8564880" y="1661160"/>
+          <a:ext cx="556260" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Conector de Seta Reta 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BABD3BC-EE50-4D85-A912-563F166F818C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6111240" y="975360"/>
+          <a:ext cx="3025140" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Conector de Seta Reta 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{683F351E-F834-4D2A-87EF-F3A8775DABB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10378440" y="2979420"/>
+          <a:ext cx="1798320" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Conector de Seta Reta 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC821FB8-8CF8-42D1-8345-74C92D5EDBC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10363200" y="1303020"/>
+          <a:ext cx="1813560" cy="982980"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Conector de Seta Reta 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FDDB6B1-70DF-4A88-B271-57E0BF537FDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1226820" y="2613660"/>
+          <a:ext cx="1203960" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Conector de Seta Reta 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA8DC8B9-AB6A-4BCD-B850-415C938A1085}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6111240" y="4914900"/>
+          <a:ext cx="2994660" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>243840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Conector de Seta Reta 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EE9CA4D-C82E-4455-9204-0BB7A6E2D9B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3688080" y="1226820"/>
+          <a:ext cx="1173480" cy="1059180"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Conector de Seta Reta 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A94838D-A18F-4E6C-80E7-67936B2616F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="3291840"/>
+          <a:ext cx="1219200" cy="1303020"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>312420</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Conector de Seta Reta 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BCBAF85-C3F9-4D8E-9433-A7F007A98457}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6149340" y="3284220"/>
+          <a:ext cx="1173480" cy="1287780"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector de Seta Reta 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C630F106-47C4-410A-B17C-27F685DFFD22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8564880" y="1661160"/>
+          <a:ext cx="556260" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Conector de Seta Reta 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FBCE3C5-BC66-4176-B860-D7B70FD18D85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6111240" y="975360"/>
+          <a:ext cx="3025140" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Conector de Seta Reta 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F477F765-3424-4A86-8C38-DD79CF11FD9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10378440" y="2979420"/>
+          <a:ext cx="1798320" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector de Seta Reta 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48FDBE4F-F1C0-4BC5-B2E2-B3F2620463C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10363200" y="1303020"/>
+          <a:ext cx="1813560" cy="982980"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Conector de Seta Reta 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02983916-EC61-4730-A598-0A2732AF5BCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1226820" y="2613660"/>
+          <a:ext cx="1203960" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Conector de Seta Reta 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60A5F88E-16D5-4960-B7A9-6755C3EC770C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6111240" y="4914900"/>
+          <a:ext cx="2994660" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>243840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Conector de Seta Reta 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E382A6A7-A3A7-4F44-9FE1-2B84AE11C31B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3688080" y="1226820"/>
+          <a:ext cx="1173480" cy="1059180"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Conector de Seta Reta 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF6EABC2-403B-47EE-8DB7-CAE61B4970EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="3291840"/>
+          <a:ext cx="1219200" cy="1303020"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>312420</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Conector de Seta Reta 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CD82143-0461-42F0-AE3E-7088354A1A89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6149340" y="3284220"/>
+          <a:ext cx="1173480" cy="1287780"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Conector de Seta Reta 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F3C9351-E8DD-46B7-849D-876F3634FCBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8564880" y="1661160"/>
+          <a:ext cx="556260" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Conector de Seta Reta 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{155C6692-1BA3-42FB-AF01-0177EC0CD70D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6111240" y="975360"/>
+          <a:ext cx="3025140" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Conector de Seta Reta 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59D86485-07F9-4929-AB3A-1AE55EFE5322}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10378440" y="2979420"/>
+          <a:ext cx="1798320" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Conector de Seta Reta 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EC84053-7EFA-4CD7-B194-223B947F13E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10363200" y="1303020"/>
+          <a:ext cx="1813560" cy="982980"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Conector de Seta Reta 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A86079-E4AF-494A-994B-C35A0892755A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1226820" y="2613660"/>
+          <a:ext cx="1203960" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Conector de Seta Reta 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE4BE834-BA97-4D39-986B-D02B788BCBE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6111240" y="4914900"/>
+          <a:ext cx="2994660" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>243840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Conector de Seta Reta 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{792EFB4D-E59E-40E1-BC13-F3D47AB70028}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3688080" y="1226820"/>
+          <a:ext cx="1173480" cy="1059180"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Conector de Seta Reta 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{972C350B-BFA3-4086-A954-37F772E44DAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="3291840"/>
+          <a:ext cx="1219200" cy="1303020"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>312420</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Conector de Seta Reta 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A496E9BC-244E-408E-B8DB-DAFC2B14BAA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6149340" y="3284220"/>
+          <a:ext cx="1173480" cy="1287780"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Conector de Seta Reta 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF4303FE-6B6E-469F-96AB-9CEDA0924623}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8564880" y="1661160"/>
+          <a:ext cx="556260" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Conector de Seta Reta 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6335C74-47E2-4C1B-B77D-5DFB2E081C2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6111240" y="975360"/>
+          <a:ext cx="3025140" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Conector de Seta Reta 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B29A215-E522-49BB-A193-D7032846863E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10378440" y="2979420"/>
+          <a:ext cx="1798320" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Conector de Seta Reta 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3ED9633-7E3F-443E-B925-DCD63C55D495}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10363200" y="1303020"/>
+          <a:ext cx="1813560" cy="982980"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Conector de Seta Reta 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C6B43B5-73DF-4495-AB68-E262881AEF5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1226820" y="2613660"/>
+          <a:ext cx="1203960" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Conector de Seta Reta 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04F12FD0-7C3F-48C1-9612-C549D0623F48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6111240" y="4914900"/>
+          <a:ext cx="2994660" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>243840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Conector de Seta Reta 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CC35FCA-6830-4969-A163-724A4E43639A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3688080" y="1226820"/>
+          <a:ext cx="1173480" cy="1059180"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Conector de Seta Reta 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B18E3377-E226-444B-91CB-F9A0B6821B8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="3291840"/>
+          <a:ext cx="1219200" cy="1303020"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>312420</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Conector de Seta Reta 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02727887-F33D-40D5-B12D-F15F1C9B5420}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6149340" y="3284220"/>
+          <a:ext cx="1173480" cy="1287780"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector de Seta Reta 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B462D33F-2D2B-4C2A-AA9A-0F3AA07EE4D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8564880" y="1661160"/>
+          <a:ext cx="556260" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Conector de Seta Reta 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB6B54A0-02EC-4D69-98E2-1D6A64E1DEB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6111240" y="975360"/>
+          <a:ext cx="3025140" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Conector de Seta Reta 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AB27A9A-10EC-4EA1-8907-49061E9F8A71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10378440" y="2979420"/>
+          <a:ext cx="1798320" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector de Seta Reta 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C0F431-2271-411C-B95D-200AE887EAD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10363200" y="1303020"/>
+          <a:ext cx="1813560" cy="982980"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Conector de Seta Reta 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E69FFD4-06D2-4842-9EA4-C98745BB97AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1226820" y="2613660"/>
+          <a:ext cx="1203960" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Conector de Seta Reta 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3489CF74-18D3-4388-8814-39AB4181422C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6111240" y="4914900"/>
+          <a:ext cx="2994660" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>243840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Conector de Seta Reta 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA31E75A-E2E8-4AA0-CD76-45526EC5E357}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3688080" y="1226820"/>
+          <a:ext cx="1173480" cy="1059180"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector de Seta Reta 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC30F79-03D6-DBB5-36B7-643591539CA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="3291840"/>
+          <a:ext cx="1219200" cy="1303020"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>312420</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Conector de Seta Reta 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD39AF22-E16F-A4E6-E4ED-3858F66138EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6149340" y="3284220"/>
+          <a:ext cx="1173480" cy="1287780"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Conector de Seta Reta 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1D517D2-E735-A172-F9B1-7B0BB5066D27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8564880" y="1661160"/>
+          <a:ext cx="556260" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Conector de Seta Reta 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84792A2A-E2C4-1A29-48F7-EA71CD90644E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6111240" y="975360"/>
+          <a:ext cx="3025140" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Conector de Seta Reta 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDBCC99D-AC17-518F-8D04-B04611308D77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10378440" y="2979420"/>
+          <a:ext cx="1798320" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Conector de Seta Reta 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65527F2-2939-7AE3-B737-B6655730D262}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10363200" y="1303020"/>
+          <a:ext cx="1813560" cy="982980"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Conector de Seta Reta 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFC62C28-A1C2-C539-1A36-B5BCA1B42AA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1226820" y="2613660"/>
+          <a:ext cx="1203960" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Conector de Seta Reta 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CE0A76E-208A-1C5D-B241-9B06CF810096}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6111240" y="4914900"/>
+          <a:ext cx="2994660" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -973,11 +4406,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580521F1-7909-4C01-B09A-C9C846408BE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9078BBB-211F-4C76-B93D-C1F8C96A5B4D}">
   <dimension ref="A3:V17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
@@ -988,153 +4421,915 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="6">
         <v>4</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="I4" s="3">
-        <f>F8+E9</f>
-        <v>11</v>
-      </c>
-      <c r="J4" s="3">
-        <f>J3+F9</f>
-        <v>14</v>
-      </c>
-      <c r="P4" s="3">
-        <f>Q3+M9</f>
-        <v>23</v>
-      </c>
-      <c r="Q4" s="3">
-        <f>Q3+N9</f>
-        <v>27</v>
-      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:22" ht="25.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
     </row>
     <row r="6" spans="1:22" ht="25.8" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="E8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>10</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="9">
+        <v>5</v>
+      </c>
+      <c r="U8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="V8" s="13"/>
     </row>
-    <row r="8" spans="1:22" ht="25.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A9" s="12">
         <v>0</v>
       </c>
-      <c r="F8" s="3">
-        <v>10</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N8" s="3">
-        <v>5</v>
-      </c>
-      <c r="U8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V8" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="25.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>10</v>
-      </c>
-      <c r="M9" s="3">
-        <f>J15+I16</f>
-        <v>18</v>
-      </c>
-      <c r="N9" s="3">
-        <f>N8+J16</f>
-        <v>22</v>
-      </c>
-      <c r="U9" s="3">
-        <f>V8+Q4</f>
-        <v>28</v>
-      </c>
-      <c r="V9" s="3">
-        <f>V8+Q16</f>
-        <v>20</v>
-      </c>
+      <c r="B9" s="13"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="U9" s="12">
+        <f>IF(Q4&gt;Q16,Q4,Q16)</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="13"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
     </row>
     <row r="14" spans="1:22" ht="25.8" customHeight="1" x14ac:dyDescent="0.5"/>
     <row r="15" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="6">
         <v>7</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="P15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="I16" s="3">
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+    </row>
+    <row r="17" spans="9:17" x14ac:dyDescent="0.5">
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="U9:V9"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89007E52-0DCB-4966-A007-F5FC147373E9}">
+  <dimension ref="A3:V17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="21" width="8.88671875" style="1"/>
+    <col min="22" max="22" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="I3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
+        <v>4</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="I4" s="10">
         <f>F8+E9</f>
-        <v>11</v>
-      </c>
-      <c r="J16" s="3">
+        <v>10</v>
+      </c>
+      <c r="J4" s="10">
+        <f>J3+F9</f>
+        <v>14</v>
+      </c>
+      <c r="P4" s="10">
+        <f>Q3+M9</f>
+        <v>22</v>
+      </c>
+      <c r="Q4" s="10">
+        <f>Q3+N9</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="25.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+    </row>
+    <row r="6" spans="1:22" ht="25.8" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="E8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>10</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="9">
+        <v>5</v>
+      </c>
+      <c r="U8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="V8" s="13"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A9" s="12">
+        <v>0</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="E9" s="10">
+        <f>A9</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>10</v>
+      </c>
+      <c r="M9" s="10">
+        <f>J15+I16</f>
+        <v>17</v>
+      </c>
+      <c r="N9" s="10">
+        <f>N8+J16</f>
+        <v>22</v>
+      </c>
+      <c r="U9" s="12">
+        <f>IF(Q4&gt;Q16,Q4,Q16)</f>
+        <v>27</v>
+      </c>
+      <c r="V9" s="13"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="14" spans="1:22" ht="25.8" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="I15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="6">
+        <v>7</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="I16" s="10">
+        <f>F8+E9</f>
+        <v>10</v>
+      </c>
+      <c r="J16" s="10">
         <f>J15+F9</f>
         <v>17</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="10">
         <f>I16+J15</f>
-        <v>18</v>
-      </c>
-      <c r="Q16" s="3">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="10">
         <f>Q15+J16</f>
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="9:17" x14ac:dyDescent="0.5">
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="U9:V9"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A6A82AC-6F01-4E61-BD8D-288514242ABA}">
+  <dimension ref="A3:V17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="21" width="8.88671875" style="1"/>
+    <col min="22" max="22" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="I3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
+        <v>4</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="I4" s="10">
+        <f>F8+E9</f>
+        <v>10</v>
+      </c>
+      <c r="J4" s="10">
+        <f>J3+F9</f>
+        <v>14</v>
+      </c>
+      <c r="P4" s="10">
+        <f>Q3+M9</f>
+        <v>22</v>
+      </c>
+      <c r="Q4" s="10">
+        <f>Q3+N9</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="25.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="I5" s="11">
+        <f>J5-J3</f>
+        <v>18</v>
+      </c>
+      <c r="J5" s="11">
+        <f>P5</f>
+        <v>22</v>
+      </c>
+      <c r="P5" s="11">
+        <f>Q5-Q3</f>
+        <v>22</v>
+      </c>
+      <c r="Q5" s="11">
+        <f>U9</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="25.8" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="E8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>10</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="9">
+        <v>5</v>
+      </c>
+      <c r="U8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="V8" s="13"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A9" s="12">
+        <v>0</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="E9" s="10">
+        <f>A9</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>10</v>
+      </c>
+      <c r="M9" s="10">
+        <f>J15+I16</f>
+        <v>17</v>
+      </c>
+      <c r="N9" s="10">
+        <f>N8+J16</f>
+        <v>22</v>
+      </c>
+      <c r="U9" s="12">
+        <f>IF(Q4&gt;Q16,Q4,Q16)</f>
+        <v>27</v>
+      </c>
+      <c r="V9" s="13"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="E10" s="11">
+        <f>F10-F8</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <f>I17</f>
+        <v>10</v>
+      </c>
+      <c r="M10" s="11">
+        <f>N10-N8</f>
+        <v>17</v>
+      </c>
+      <c r="N10" s="11">
+        <f>P5</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="25.8" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="I15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="6">
+        <v>7</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="I16" s="10">
+        <f>F8+E9</f>
+        <v>10</v>
+      </c>
+      <c r="J16" s="10">
+        <f>J15+F9</f>
+        <v>17</v>
+      </c>
+      <c r="P16" s="10">
+        <f>I16+J15</f>
+        <v>17</v>
+      </c>
+      <c r="Q16" s="10">
+        <f>Q15+J16</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="9:17" x14ac:dyDescent="0.5">
+      <c r="I17" s="11">
+        <f>J17-J15</f>
+        <v>10</v>
+      </c>
+      <c r="J17" s="11">
+        <f>IF(M10&lt;P17,M10,P17)</f>
+        <v>17</v>
+      </c>
+      <c r="P17" s="11">
+        <f>Q17-Q15</f>
+        <v>25</v>
+      </c>
+      <c r="Q17" s="11">
+        <f>U9</f>
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="U9:V9"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD5EF7E-9417-48C8-A8E4-367927468DC1}">
+  <dimension ref="A3:V18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="15" width="8.88671875" style="1"/>
+    <col min="16" max="16" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="8.88671875" style="1"/>
+    <col min="22" max="22" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="I3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
+        <v>4</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="I4" s="10">
+        <f>F8+E9</f>
+        <v>10</v>
+      </c>
+      <c r="J4" s="10">
+        <f>J3+F9</f>
+        <v>14</v>
+      </c>
+      <c r="P4" s="10">
+        <f>Q3+M9</f>
+        <v>22</v>
+      </c>
+      <c r="Q4" s="10">
+        <f>Q3+N9</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="25.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="I5" s="11">
+        <f>J5-J3</f>
+        <v>18</v>
+      </c>
+      <c r="J5" s="11">
+        <f>P5</f>
+        <v>22</v>
+      </c>
+      <c r="P5" s="11">
+        <f>Q5-Q3</f>
+        <v>22</v>
+      </c>
+      <c r="Q5" s="11">
+        <f>U9</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="25.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="I6" s="1">
+        <f>I5-I4</f>
+        <v>8</v>
+      </c>
+      <c r="P6" s="1">
+        <f>P5-P4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="E8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>10</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="6">
+        <v>5</v>
+      </c>
+      <c r="U8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="V8" s="13"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A9" s="12">
+        <v>0</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="E9" s="10">
+        <f>A9</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>10</v>
+      </c>
+      <c r="M9" s="10">
+        <f>J15+I16</f>
+        <v>17</v>
+      </c>
+      <c r="N9" s="10">
+        <f>N8+J16</f>
+        <v>22</v>
+      </c>
+      <c r="U9" s="12">
+        <f>IF(Q4&gt;Q16,Q4,Q16)</f>
+        <v>27</v>
+      </c>
+      <c r="V9" s="13"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="E10" s="11">
+        <f>F10-F8</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <f>I17</f>
+        <v>10</v>
+      </c>
+      <c r="M10" s="11">
+        <f>N10-N8</f>
+        <v>17</v>
+      </c>
+      <c r="N10" s="11">
+        <f>P5</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="E11" s="1">
+        <f>E10-E9</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <f>M9-M10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="25.8" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="I15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="6">
+        <v>7</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="I16" s="10">
+        <f>F8+E9</f>
+        <v>10</v>
+      </c>
+      <c r="J16" s="10">
+        <f>J15+F9</f>
+        <v>17</v>
+      </c>
+      <c r="P16" s="10">
+        <f>I16+J15</f>
+        <v>17</v>
+      </c>
+      <c r="Q16" s="10">
+        <f>Q15+J16</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="9:17" x14ac:dyDescent="0.5">
+      <c r="I17" s="11">
+        <f>J17-J15</f>
+        <v>10</v>
+      </c>
+      <c r="J17" s="11">
+        <f>IF(M10&lt;P17,M10,P17)</f>
+        <v>17</v>
+      </c>
+      <c r="P17" s="11">
+        <f>Q17-Q15</f>
+        <v>25</v>
+      </c>
+      <c r="Q17" s="11">
+        <f>U9</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="9:17" x14ac:dyDescent="0.5">
+      <c r="I18" s="1">
+        <f>I17-I16</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <f>P17-P16</f>
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="U9:V9"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580521F1-7909-4C01-B09A-C9C846408BE9}">
+  <dimension ref="A3:V18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="21" width="8.88671875" style="1"/>
+    <col min="22" max="22" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="I3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
+        <v>4</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="I4" s="10">
+        <f>F8+E9</f>
+        <v>10</v>
+      </c>
+      <c r="J4" s="10">
+        <f>J3+F9</f>
+        <v>14</v>
+      </c>
+      <c r="P4" s="2">
+        <f>Q3+M9</f>
+        <v>22</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>Q3+N9</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="25.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="I5" s="11">
+        <f>J5-J3</f>
+        <v>18</v>
+      </c>
+      <c r="J5" s="11">
+        <f>P5</f>
+        <v>22</v>
+      </c>
+      <c r="P5" s="3">
+        <f>Q5-Q3</f>
+        <v>22</v>
+      </c>
+      <c r="Q5" s="3">
+        <f>U9</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="25.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="I6" s="1">
+        <f>I5-I4</f>
+        <v>8</v>
+      </c>
+      <c r="P6" s="1">
+        <f>P4-P5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="E8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>10</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="4">
+        <v>5</v>
+      </c>
+      <c r="U8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="V8" s="13"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="A9" s="12">
+        <v>0</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="E9" s="4">
+        <f>A9</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>10</v>
+      </c>
+      <c r="M9" s="4">
+        <f>J15+I16</f>
+        <v>17</v>
+      </c>
+      <c r="N9" s="4">
+        <f>N8+J16</f>
+        <v>22</v>
+      </c>
+      <c r="U9" s="12">
+        <f>IF(Q4&gt;Q16,Q4,Q16)</f>
+        <v>27</v>
+      </c>
+      <c r="V9" s="13"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="E10" s="5">
+        <f>F10-F8</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <f>I17</f>
+        <v>10</v>
+      </c>
+      <c r="M10" s="5">
+        <f>N10-N8</f>
+        <v>17</v>
+      </c>
+      <c r="N10" s="5">
+        <f>P5</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="E11" s="1">
+        <f>E9-E10</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <f>M9-M10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="25.8" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="I15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="4">
+        <v>7</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="I16" s="4">
+        <f>F8+E9</f>
+        <v>10</v>
+      </c>
+      <c r="J16" s="4">
+        <f>J15+F9</f>
+        <v>17</v>
+      </c>
+      <c r="P16" s="10">
+        <f>I16+J15</f>
+        <v>17</v>
+      </c>
+      <c r="Q16" s="10">
+        <f>Q15+J16</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="9:17" x14ac:dyDescent="0.5">
+      <c r="I17" s="5">
+        <f>J17-J15</f>
+        <v>10</v>
+      </c>
+      <c r="J17" s="5">
+        <f>IF(M10&lt;P17,M10,P17)</f>
+        <v>17</v>
+      </c>
+      <c r="P17" s="11">
+        <f>Q17-Q15</f>
+        <v>25</v>
+      </c>
+      <c r="Q17" s="11">
+        <f>U9</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="9:17" x14ac:dyDescent="0.5">
+      <c r="I18" s="1">
+        <f>I16-I17</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <f>P17-P16</f>
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>